--- a/Outputs/mutate_rate_max_mask_size_test/mutation_rates_and_max_mask_size_data.xlsx
+++ b/Outputs/mutate_rate_max_mask_size_test/mutation_rates_and_max_mask_size_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bo\Research\GA\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bo\Research\GA\Code\Outputs\mutate_rate_max_mask_size_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,6 +102,6144 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mutation Rate 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MMS 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4889099999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9085700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8452000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8329300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.83012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-90AD-491D-8A8C-83F82AB1C78C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MMS 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4467600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8632900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7979799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7408399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7112400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-90AD-491D-8A8C-83F82AB1C78C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MMS 25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$12:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4077599999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0163900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8501799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7989899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7619099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-90AD-491D-8A8C-83F82AB1C78C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MMS 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.42319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9266299999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8685999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8454600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-90AD-491D-8A8C-83F82AB1C78C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="547462624"/>
+        <c:axId val="550494600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="547462624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550494600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="550494600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547462624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Mutation Rate 20</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6522706758628282E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.80580309095794889"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MMS 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4127999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9177599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8526199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.83616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8296800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-202D-4729-ADD8-D52DCFB32BBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MMS 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$28:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.3636400000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9063300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8277899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7670300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7371699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-202D-4729-ADD8-D52DCFB32BBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MMS 25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$33:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4602899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9409200000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8557700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8092800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7775500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-202D-4729-ADD8-D52DCFB32BBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MMS 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$38:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.56447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0453599999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9703499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8583500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8160599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-202D-4729-ADD8-D52DCFB32BBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557839328"/>
+        <c:axId val="557836048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557839328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557836048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557836048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.5999999999999996"/>
+          <c:min val="3.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557839328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Mutation Rate 50</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MMS 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$44:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$44:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5370699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9297499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8541099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.83412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A05-44F0-A860-326C6E7E04E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MMS 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$49:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$49:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4171100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9249100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8290299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.77434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7326000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0A05-44F0-A860-326C6E7E04E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MMS 25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$54:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$54:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4091300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.92726</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8557299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8090899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7598199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0A05-44F0-A860-326C6E7E04E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MMS 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$59:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$59:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.39276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9948700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8814799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8356400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7991899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0A05-44F0-A860-326C6E7E04E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557907080"/>
+        <c:axId val="557911344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557907080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557911344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557911344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557907080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Mutation Rate 80</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MMS 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$65:$C$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$65:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5579799999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9293100000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8614600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8285800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8182999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-364B-4E48-BFB2-2EDD66EFC3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MMS 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$70:$C$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$70:$D$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.46441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8977599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8296000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7774899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7399499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-364B-4E48-BFB2-2EDD66EFC3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MMS 25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$75:$C$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$75:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4323600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0016999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8692500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8258299999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7683499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-364B-4E48-BFB2-2EDD66EFC3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MMS 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$80:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$80:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4164599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1691399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9602499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9126300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8442500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-364B-4E48-BFB2-2EDD66EFC3DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557910032"/>
+        <c:axId val="557909704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557910032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557909704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557909704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.5999999999999996"/>
+          <c:min val="3.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557910032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Mutation Rate 90</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MMS 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$86:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$86:$D$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.39527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.83988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.82958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8258800000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F7F-4111-B061-B53BF4FF7F23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MMS 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$91:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$91:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4116799999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9102999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8198099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7437900000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7260200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1F7F-4111-B061-B53BF4FF7F23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MMS 25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$96:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$96:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.3873499999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.97079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.84388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7780300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7402299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1F7F-4111-B061-B53BF4FF7F23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MMS 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$101:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$101:$D$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4076700000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8988800000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.81332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7790699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1F7F-4111-B061-B53BF4FF7F23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557782896"/>
+        <c:axId val="557783224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557782896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557783224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557783224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.5999999999999996"/>
+          <c:min val="3.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557782896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>223836</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2505DA1F-303E-4DF6-80D3-CCDA0C1E91CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39437A4A-67AE-41C0-9E7B-6872BA32B757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47B3CE7-8AC7-415B-9FAB-2A5C7D972F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A8B573-CD85-46D2-AF17-ECC725727EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FBB960-8418-446E-AB04-D485A7F8AFD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,8 +6541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04D6356-FD66-4101-9DCF-8D4A1F10FEBB}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,5 +7748,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>